--- a/data/Subset1_WithDialogActs/What is one half 2_Grade 4.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/What is one half 2_Grade 4.xlsx_with_dialog_acts.xlsx
@@ -1231,12 +1231,12 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1691,12 +1691,12 @@
       <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2451,12 +2451,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2569,12 +2569,12 @@
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2683,12 +2683,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2721,12 +2721,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3443,12 +3443,12 @@
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3823,12 +3823,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4089,12 +4089,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
